--- a/Spatial/Training_data_C_A.xlsx
+++ b/Spatial/Training_data_C_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\T_Drive\GitHub\Toolbox_2P\Spatial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7286A99-7BC3-4971-AEF9-99E05D01A3BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A57E8B0-6BB4-4A95-BE40-39DC3785818E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{C5A4E43E-E62E-470C-8B6A-D32571AD20ED}"/>
   </bookViews>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A4A534-F471-45E4-8515-4B21A5D12590}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.8653832521497185</v>
+        <v>9.0795412318060915</v>
       </c>
       <c r="C2">
-        <v>2.5432403871466489</v>
+        <v>2.7309245258876143</v>
       </c>
       <c r="D2">
-        <v>12.768144122274142</v>
+        <v>12.885820951885011</v>
       </c>
       <c r="E2">
-        <v>4.5269465447363233</v>
+        <v>4.7434358854807135</v>
       </c>
       <c r="F2">
-        <v>8.4784833292448614</v>
+        <v>7.8613423370997122</v>
       </c>
       <c r="G2">
-        <v>2.828072171053297</v>
+        <v>2.3343700239942549</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -473,22 +473,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.753558616821751</v>
+        <v>5.8653832521497185</v>
       </c>
       <c r="C3">
-        <v>4.1622030742688771</v>
+        <v>2.5432403871466489</v>
       </c>
       <c r="D3">
-        <v>15.916348718141897</v>
+        <v>12.768144122274142</v>
       </c>
       <c r="E3">
-        <v>5.525532092200228</v>
+        <v>4.5269465447363233</v>
       </c>
       <c r="F3">
-        <v>15.453321562917274</v>
+        <v>8.4784833292448614</v>
       </c>
       <c r="G3">
-        <v>2.9702896319556213</v>
+        <v>2.828072171053297</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -496,22 +496,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>10.035508326476327</v>
+        <v>4.2848340853856763</v>
       </c>
       <c r="C4">
-        <v>8.2246126349981186</v>
+        <v>1.9522879655466683</v>
       </c>
       <c r="D4">
-        <v>16.952972724501816</v>
+        <v>6.9229267387170674</v>
       </c>
       <c r="E4">
-        <v>8.373799201368513</v>
+        <v>1.9772321458967734</v>
       </c>
       <c r="F4">
-        <v>13.6013013072894</v>
+        <v>9.0216978142069735</v>
       </c>
       <c r="G4">
-        <v>8.2605585965644366</v>
+        <v>3.0943264710676375</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -519,22 +519,22 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>6.9100438299487124</v>
+        <v>5.753558616821751</v>
       </c>
       <c r="C5">
-        <v>3.890928715642525</v>
+        <v>4.1622030742688771</v>
       </c>
       <c r="D5">
-        <v>12.603496135052875</v>
+        <v>8.5665050583636013</v>
       </c>
       <c r="E5">
-        <v>4.1558485505227907</v>
+        <v>3.4985973340615066</v>
       </c>
       <c r="F5">
-        <v>19.401962016702665</v>
+        <v>15.916348718141897</v>
       </c>
       <c r="G5">
-        <v>5.972350876952957</v>
+        <v>5.525532092200228</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -542,91 +542,91 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>7.6578681199572705</v>
+        <v>16.373804863082238</v>
       </c>
       <c r="C6">
-        <v>3.6589565158246482</v>
+        <v>7.6259461136145648</v>
       </c>
       <c r="D6">
-        <v>19.981972682808475</v>
+        <v>17.040157879621489</v>
       </c>
       <c r="E6">
-        <v>6.4563728593776792</v>
+        <v>3.6689505879563589</v>
       </c>
       <c r="F6">
-        <v>22.872401349658986</v>
+        <v>19.314860771760824</v>
       </c>
       <c r="G6">
-        <v>7.8586952342694012</v>
+        <v>3.6339193581177165</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>10.481525310491589</v>
+        <v>10.035508326476327</v>
       </c>
       <c r="C7">
-        <v>4.2174719369161338</v>
+        <v>8.2246126349981186</v>
       </c>
       <c r="D7">
-        <v>13.963754057910975</v>
+        <v>13.424112248517268</v>
       </c>
       <c r="E7">
-        <v>7.2735125399951404</v>
+        <v>11.225730893504327</v>
       </c>
       <c r="F7">
-        <v>12.3533237650903</v>
+        <v>16.952972724501816</v>
       </c>
       <c r="G7">
-        <v>7.6916791978243788</v>
+        <v>8.373799201368513</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>6.7154471446280786</v>
+        <v>6.9100438299487124</v>
       </c>
       <c r="C8">
-        <v>3.3261016791659319</v>
+        <v>3.890928715642525</v>
       </c>
       <c r="D8">
-        <v>11.976665240761795</v>
+        <v>12.603496135052875</v>
       </c>
       <c r="E8">
-        <v>4.6712992844627861</v>
+        <v>4.1558485505227907</v>
       </c>
       <c r="F8">
-        <v>17.792999804156405</v>
+        <v>19.401962016702665</v>
       </c>
       <c r="G8">
-        <v>6.4659657792118139</v>
+        <v>5.972350876952957</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>6.3155606502412658</v>
+        <v>7.6578681199572705</v>
       </c>
       <c r="C9">
-        <v>2.1808679933497057</v>
+        <v>3.6589565158246482</v>
       </c>
       <c r="D9">
-        <v>8.7379417757936473</v>
+        <v>17.360703956014024</v>
       </c>
       <c r="E9">
-        <v>2.7288177049156794</v>
+        <v>5.8140703278356574</v>
       </c>
       <c r="F9">
-        <v>15.082708999606885</v>
+        <v>19.981972682808475</v>
       </c>
       <c r="G9">
-        <v>4.0789847083963844</v>
+        <v>6.4563728593776792</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,22 +634,22 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>5.7991781977198347</v>
+        <v>10.481525310491589</v>
       </c>
       <c r="C10">
-        <v>2.9953068440865116</v>
+        <v>4.2174719369161338</v>
       </c>
       <c r="D10">
-        <v>9.6660903685052411</v>
+        <v>13.963754057910975</v>
       </c>
       <c r="E10">
-        <v>3.2524957898299056</v>
+        <v>7.2735125399951404</v>
       </c>
       <c r="F10">
-        <v>11.838996812530432</v>
+        <v>12.3533237650903</v>
       </c>
       <c r="G10">
-        <v>2.6808003051717053</v>
+        <v>7.6916791978243788</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,21 +657,113 @@
         <v>2</v>
       </c>
       <c r="B11">
+        <v>6.7154471446280786</v>
+      </c>
+      <c r="C11">
+        <v>3.3261016791659319</v>
+      </c>
+      <c r="D11">
+        <v>11.976665240761795</v>
+      </c>
+      <c r="E11">
+        <v>4.6712992844627861</v>
+      </c>
+      <c r="F11">
+        <v>17.792999804156405</v>
+      </c>
+      <c r="G11">
+        <v>6.4659657792118139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4.4632371247117302</v>
+      </c>
+      <c r="C12">
+        <v>3.1382489335984514</v>
+      </c>
+      <c r="D12">
+        <v>6.7911252046992923</v>
+      </c>
+      <c r="E12">
+        <v>3.4955619476381146</v>
+      </c>
+      <c r="F12">
+        <v>8.7296963618283385</v>
+      </c>
+      <c r="G12">
+        <v>3.5520303602818566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>6.3155606502412658</v>
+      </c>
+      <c r="C13">
+        <v>2.1808679933497057</v>
+      </c>
+      <c r="D13">
+        <v>8.7379417757936473</v>
+      </c>
+      <c r="E13">
+        <v>2.7288177049156794</v>
+      </c>
+      <c r="F13">
+        <v>15.082708999606885</v>
+      </c>
+      <c r="G13">
+        <v>4.0789847083963844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5.7991781977198347</v>
+      </c>
+      <c r="C14">
+        <v>2.9953068440865116</v>
+      </c>
+      <c r="D14">
+        <v>9.6660903685052411</v>
+      </c>
+      <c r="E14">
+        <v>3.2524957898299056</v>
+      </c>
+      <c r="F14">
+        <v>11.838996812530432</v>
+      </c>
+      <c r="G14">
+        <v>2.6808003051717053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>5.8979019390248402</v>
       </c>
-      <c r="C11">
+      <c r="C15">
         <v>2.9855996246977878</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>4.4575048616327733</v>
       </c>
-      <c r="E11">
+      <c r="E15">
         <v>2.1612531034665396</v>
       </c>
-      <c r="F11">
+      <c r="F15">
         <v>14.910711910068809</v>
       </c>
-      <c r="G11">
+      <c r="G15">
         <v>2.6934974572173354</v>
       </c>
     </row>

--- a/Spatial/Training_data_C_A.xlsx
+++ b/Spatial/Training_data_C_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\T_Drive\GitHub\Toolbox_2P\Spatial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A57E8B0-6BB4-4A95-BE40-39DC3785818E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F77A2CB2-9B02-47A7-9D4A-E4DE17D95401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{C5A4E43E-E62E-470C-8B6A-D32571AD20ED}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{C5A4E43E-E62E-470C-8B6A-D32571AD20ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Spatial/Training_data_C_A.xlsx
+++ b/Spatial/Training_data_C_A.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{F77A2CB2-9B02-47A7-9D4A-E4DE17D95401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{C5A4E43E-E62E-470C-8B6A-D32571AD20ED}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>Group</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>InterTrials_Day3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -79,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,12 +93,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,362 +419,362 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A4A534-F471-45E4-8515-4B21A5D12590}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="15.42578125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>9.0795412318060915</v>
+        <v>9.079123472024337</v>
       </c>
       <c r="C2">
-        <v>2.7309245258876143</v>
+        <v>2.728114733146032</v>
       </c>
       <c r="D2">
-        <v>12.885820951885011</v>
+        <v>12.884240885900757</v>
       </c>
       <c r="E2">
-        <v>4.7434358854807135</v>
+        <v>4.7423557319894751</v>
       </c>
       <c r="F2">
-        <v>7.8613423370997122</v>
+        <v>7.8583004658606175</v>
       </c>
       <c r="G2">
-        <v>2.3343700239942549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+        <v>2.3335398677057904</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>5.8653832521497185</v>
+        <v>5.8563198076740965</v>
       </c>
       <c r="C3">
-        <v>2.5432403871466489</v>
+        <v>2.5402329258930245</v>
       </c>
       <c r="D3">
-        <v>12.768144122274142</v>
+        <v>12.766784930782613</v>
       </c>
       <c r="E3">
-        <v>4.5269465447363233</v>
+        <v>4.5234874282776012</v>
       </c>
       <c r="F3">
-        <v>8.4784833292448614</v>
+        <v>8.4770831554566026</v>
       </c>
       <c r="G3">
-        <v>2.828072171053297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+        <v>2.8268485874500286</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>4.2848340853856763</v>
+        <v>4.2832657412852582</v>
       </c>
       <c r="C4">
-        <v>1.9522879655466683</v>
+        <v>1.9493702145153764</v>
       </c>
       <c r="D4">
-        <v>6.9229267387170674</v>
+        <v>6.9105071593696659</v>
       </c>
       <c r="E4">
-        <v>1.9772321458967734</v>
+        <v>1.9732743555300671</v>
       </c>
       <c r="F4">
-        <v>9.0216978142069735</v>
+        <v>9.0200356705467684</v>
       </c>
       <c r="G4">
-        <v>3.0943264710676375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+        <v>3.0905615673408935</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>5.753558616821751</v>
+        <v>5.7514728489690858</v>
       </c>
       <c r="C5">
-        <v>4.1622030742688771</v>
+        <v>4.1557502007406377</v>
       </c>
       <c r="D5">
-        <v>8.5665050583636013</v>
+        <v>8.5663464496714923</v>
       </c>
       <c r="E5">
-        <v>3.4985973340615066</v>
+        <v>3.4984223847675584</v>
       </c>
       <c r="F5">
-        <v>15.916348718141897</v>
+        <v>15.913944735279639</v>
       </c>
       <c r="G5">
-        <v>5.525532092200228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
+        <v>5.5185446909984757</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>16.373804863082238</v>
+        <v>16.373034873012447</v>
       </c>
       <c r="C6">
-        <v>7.6259461136145648</v>
+        <v>7.6252122575721977</v>
       </c>
       <c r="D6">
-        <v>17.040157879621489</v>
+        <v>17.039649371153939</v>
       </c>
       <c r="E6">
-        <v>3.6689505879563589</v>
+        <v>3.668544300965924</v>
       </c>
       <c r="F6">
-        <v>19.314860771760824</v>
+        <v>19.314042799173162</v>
       </c>
       <c r="G6">
-        <v>3.6339193581177165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
+        <v>3.6328466591216397</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>10.035508326476327</v>
+        <v>10.02522045876594</v>
       </c>
       <c r="C7">
-        <v>8.2246126349981186</v>
+        <v>8.2231590049826817</v>
       </c>
       <c r="D7">
-        <v>13.424112248517268</v>
+        <v>13.416287711071062</v>
       </c>
       <c r="E7">
-        <v>11.225730893504327</v>
+        <v>11.220297327565847</v>
       </c>
       <c r="F7">
-        <v>16.952972724501816</v>
+        <v>16.951397203205978</v>
       </c>
       <c r="G7">
-        <v>8.373799201368513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
+        <v>8.3711465466042423</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>6.9100438299487124</v>
+        <v>6.9002194434836923</v>
       </c>
       <c r="C8">
-        <v>3.890928715642525</v>
+        <v>3.8857262819183687</v>
       </c>
       <c r="D8">
-        <v>12.603496135052875</v>
+        <v>12.597497478795797</v>
       </c>
       <c r="E8">
-        <v>4.1558485505227907</v>
+        <v>4.1520351152000563</v>
       </c>
       <c r="F8">
-        <v>19.401962016702665</v>
+        <v>19.401847745537292</v>
       </c>
       <c r="G8">
-        <v>5.972350876952957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
+        <v>5.9689169944210212</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>7.6578681199572705</v>
+        <v>7.653276503116671</v>
       </c>
       <c r="C9">
-        <v>3.6589565158246482</v>
+        <v>3.6573238621859185</v>
       </c>
       <c r="D9">
         <v>17.360703956014024</v>
       </c>
       <c r="E9">
-        <v>5.8140703278356574</v>
+        <v>5.8136330765462256</v>
       </c>
       <c r="F9">
         <v>19.981972682808475</v>
       </c>
       <c r="G9">
-        <v>6.4563728593776792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
+        <v>6.456006476846901</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>10.481525310491589</v>
+        <v>10.481588014826238</v>
       </c>
       <c r="C10">
-        <v>4.2174719369161338</v>
+        <v>4.2161824560584007</v>
       </c>
       <c r="D10">
-        <v>13.963754057910975</v>
+        <v>13.952048552279985</v>
       </c>
       <c r="E10">
-        <v>7.2735125399951404</v>
+        <v>7.2728005057585392</v>
       </c>
       <c r="F10">
-        <v>12.3533237650903</v>
+        <v>12.352946066568498</v>
       </c>
       <c r="G10">
-        <v>7.6916791978243788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
+        <v>7.6913338364859207</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>6.7154471446280786</v>
+        <v>6.7075652336571627</v>
       </c>
       <c r="C11">
-        <v>3.3261016791659319</v>
+        <v>3.3259983985351003</v>
       </c>
       <c r="D11">
-        <v>11.976665240761795</v>
+        <v>11.973269077520602</v>
       </c>
       <c r="E11">
-        <v>4.6712992844627861</v>
+        <v>4.6692453344989922</v>
       </c>
       <c r="F11">
-        <v>17.792999804156405</v>
+        <v>17.790394354078028</v>
       </c>
       <c r="G11">
-        <v>6.4659657792118139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
+        <v>6.4653795253383652</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>4.4632371247117302</v>
+        <v>4.4613931778475173</v>
       </c>
       <c r="C12">
-        <v>3.1382489335984514</v>
+        <v>3.1377154773080234</v>
       </c>
       <c r="D12">
-        <v>6.7911252046992923</v>
+        <v>6.7868516296660601</v>
       </c>
       <c r="E12">
-        <v>3.4955619476381146</v>
+        <v>3.4953656112930762</v>
       </c>
       <c r="F12">
-        <v>8.7296963618283385</v>
+        <v>8.7265103036205254</v>
       </c>
       <c r="G12">
-        <v>3.5520303602818566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
+        <v>3.5512249560019442</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>6.3155606502412658</v>
+        <v>6.3049921082328053</v>
       </c>
       <c r="C13">
-        <v>2.1808679933497057</v>
+        <v>2.1738596898597855</v>
       </c>
       <c r="D13">
-        <v>8.7379417757936473</v>
+        <v>8.7338468334826995</v>
       </c>
       <c r="E13">
-        <v>2.7288177049156794</v>
+        <v>2.7229329778023224</v>
       </c>
       <c r="F13">
-        <v>15.082708999606885</v>
+        <v>15.075051647991106</v>
       </c>
       <c r="G13">
-        <v>4.0789847083963844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
+        <v>4.0733041384733024</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>5.7991781977198347</v>
+        <v>5.7938060726579206</v>
       </c>
       <c r="C14">
-        <v>2.9953068440865116</v>
+        <v>2.9948062992168576</v>
       </c>
       <c r="D14">
-        <v>9.6660903685052411</v>
+        <v>9.6652966476902833</v>
       </c>
       <c r="E14">
-        <v>3.2524957898299056</v>
+        <v>3.2496336356871698</v>
       </c>
       <c r="F14">
-        <v>11.838996812530432</v>
+        <v>11.838996812530429</v>
       </c>
       <c r="G14">
-        <v>2.6808003051717053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
+        <v>2.6799198958682884</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>5.8979019390248402</v>
+        <v>5.8947087122264126</v>
       </c>
       <c r="C15">
-        <v>2.9855996246977878</v>
+        <v>2.9769532261248139</v>
       </c>
       <c r="D15">
-        <v>4.4575048616327733</v>
+        <v>4.455650687297994</v>
       </c>
       <c r="E15">
-        <v>2.1612531034665396</v>
+        <v>2.1603872199017768</v>
       </c>
       <c r="F15">
-        <v>14.910711910068809</v>
+        <v>14.910252953921136</v>
       </c>
       <c r="G15">
-        <v>2.6934974572173354</v>
+        <v>2.6930012112654733</v>
       </c>
     </row>
   </sheetData>
